--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_12_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_12_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52219.87462788758</v>
+        <v>10391755.05094962</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52219.87462788758</v>
+        <v>10391755.05094962</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959117141.1040579</v>
+        <v>39459009.99158664</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8150.401958900321</v>
+        <v>900870.4327803899</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15575.52280029855</v>
+        <v>1687981.082988261</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23000.64364169678</v>
+        <v>2475091.733196133</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30720.37423508531</v>
+        <v>3275250.994313097</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38374.53391938294</v>
+        <v>4062361.644520969</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>46028.69360368056</v>
+        <v>4849472.294728841</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53682.85328797818</v>
+        <v>5636582.944936709</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61337.0129722758</v>
+        <v>6423693.595144577</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68991.17265657343</v>
+        <v>7210804.245352446</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76645.33234087104</v>
+        <v>7997914.895560315</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84299.49202516866</v>
+        <v>8785025.545768188</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91680.46834253869</v>
+        <v>9559087.585066976</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99127.01556899962</v>
+        <v>10346198.23527485</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>106573.5627954606</v>
+        <v>11133308.88548273</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>114020.1100219215</v>
+        <v>11920419.53569061</v>
       </c>
     </row>
   </sheetData>
